--- a/Data/Excel/Buff.xlsx
+++ b/Data/Excel/Buff.xlsx
@@ -29,30 +29,30 @@
     <t>1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>name0</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>name0</t>
+    <t>name1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>name1</t>
-  </si>
-  <si>
     <t>name2</t>
   </si>
   <si>
-    <t>0</t>
+    <t>5</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -71,10 +71,10 @@
     <t>预知路径</t>
   </si>
   <si>
-    <t>时常</t>
-  </si>
-  <si>
-    <t>buff类型</t>
+    <t>时长</t>
+  </si>
+  <si>
+    <t>Buff类型</t>
   </si>
   <si>
     <t>测试list列</t>
@@ -86,7 +86,7 @@
     <t>Assets/GameData/...0</t>
   </si>
   <si>
-    <t>3.665928</t>
+    <t>4.014002</t>
   </si>
   <si>
     <t>None</t>
@@ -101,7 +101,10 @@
     <t>Assets/GameData/...1</t>
   </si>
   <si>
-    <t>2.393836</t>
+    <t>2.088725</t>
+  </si>
+  <si>
+    <t>Bingdong</t>
   </si>
   <si>
     <t>ceshi1;ceshiq1</t>
@@ -113,39 +116,39 @@
     <t>Assets/GameData/...2</t>
   </si>
   <si>
-    <t>4.368046</t>
+    <t>7.426538</t>
+  </si>
+  <si>
+    <t>Ranshao</t>
+  </si>
+  <si>
+    <t>ceshi2;ceshiq2</t>
+  </si>
+  <si>
+    <t>全BUFF3</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...3</t>
+  </si>
+  <si>
+    <t>6.894475</t>
+  </si>
+  <si>
+    <t>ceshi3;ceshiq3</t>
+  </si>
+  <si>
+    <t>全BUFF4</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...4</t>
+  </si>
+  <si>
+    <t>1.642875</t>
   </si>
   <si>
     <t>Du</t>
   </si>
   <si>
-    <t>ceshi2;ceshiq2</t>
-  </si>
-  <si>
-    <t>全BUFF3</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...3</t>
-  </si>
-  <si>
-    <t>9.80334</t>
-  </si>
-  <si>
-    <t>Ranshao</t>
-  </si>
-  <si>
-    <t>ceshi3;ceshiq3</t>
-  </si>
-  <si>
-    <t>全BUFF4</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...4</t>
-  </si>
-  <si>
-    <t>9.020104</t>
-  </si>
-  <si>
     <t>ceshi4;ceshiq4</t>
   </si>
   <si>
@@ -155,7 +158,7 @@
     <t>Assets/GameData/...5</t>
   </si>
   <si>
-    <t>1.81413</t>
+    <t>6.215041</t>
   </si>
   <si>
     <t>ceshi5;ceshiq5</t>
@@ -167,7 +170,7 @@
     <t>Assets/GameData/...6</t>
   </si>
   <si>
-    <t>8.064506</t>
+    <t>7.061535</t>
   </si>
   <si>
     <t>ceshi6;ceshiq6</t>
@@ -179,7 +182,7 @@
     <t>Assets/GameData/...7</t>
   </si>
   <si>
-    <t>5.439486</t>
+    <t>6.963816</t>
   </si>
   <si>
     <t>ceshi7;ceshiq7</t>
@@ -191,7 +194,7 @@
     <t>Assets/GameData/...8</t>
   </si>
   <si>
-    <t>3.227637</t>
+    <t>6.802134</t>
   </si>
   <si>
     <t>ceshi8;ceshiq8</t>
@@ -203,40 +206,37 @@
     <t>Assets/GameData/...9</t>
   </si>
   <si>
-    <t>2.466387</t>
+    <t>6.910114</t>
   </si>
   <si>
     <t>ceshi9;ceshiq9</t>
   </si>
   <si>
-    <t>4.491932</t>
+    <t>9.288064</t>
   </si>
   <si>
     <t>ceshiq0</t>
   </si>
   <si>
-    <t>3.55348</t>
+    <t>4.342845</t>
   </si>
   <si>
     <t>ceshiq1</t>
   </si>
   <si>
-    <t>9.996683</t>
+    <t>0.5943476</t>
   </si>
   <si>
     <t>ceshiq2</t>
   </si>
   <si>
-    <t>5.160574</t>
+    <t>0.6157097</t>
   </si>
   <si>
     <t>ceshiq3</t>
   </si>
   <si>
-    <t>7.75092</t>
-  </si>
-  <si>
-    <t>Bingdong</t>
+    <t>3.481117</t>
   </si>
   <si>
     <t>ceshiq4</t>
@@ -285,7 +285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -334,18 +334,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
@@ -353,54 +353,54 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
@@ -408,10 +408,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>7</v>
@@ -419,10 +419,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
@@ -433,29 +433,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>7</v>
@@ -474,18 +474,18 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>4</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
@@ -507,13 +507,57 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>5</v>
+      <c r="C23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +623,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>26</v>
@@ -591,47 +635,47 @@
         <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>39</v>
@@ -639,7 +683,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>40</v>
@@ -651,10 +695,10 @@
         <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -662,19 +706,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -682,19 +726,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -702,19 +746,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -722,19 +766,19 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -742,19 +786,19 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +808,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -791,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
@@ -799,10 +843,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -810,10 +854,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>7</v>
@@ -821,32 +865,32 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
@@ -854,13 +898,46 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>5</v>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -879,9 +956,9 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="19.4363817487444" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.73874500819615" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.08863394601" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -915,18 +992,18 @@
         <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>26</v>
@@ -935,58 +1012,58 @@
         <v>27</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>40</v>
@@ -995,10 +1072,10 @@
         <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>74</v>
